--- a/AcceptanceCriteria.xlsx
+++ b/AcceptanceCriteria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polytechintl-my.sharepoint.com/personal/o_mahmoud22026_pi_tn/Documents/_IRM-2-2-S1/C# .NET/Projet/CloudXForum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{5FF49E68-E68C-426F-A2C2-D9A44D4D6CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C20B462F-E719-4502-BBFF-D99C07002BC8}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{5FF49E68-E68C-426F-A2C2-D9A44D4D6CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E37FC5D4-D00C-4AFC-AB7B-4A3319835E85}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CFCB619F-005A-42C7-9291-1F4ED48D634C}"/>
   </bookViews>
@@ -181,7 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,14 +659,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.33203125" defaultRowHeight="30.6" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="27.296875" defaultRowHeight="30.6" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="4"/>
-    <col min="2" max="2" width="163.44140625" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="27.33203125" style="4"/>
+    <col min="1" max="1" width="27.296875" style="4"/>
+    <col min="2" max="2" width="163.3984375" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="27.296875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -674,7 +674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -682,19 +682,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -702,31 +702,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -734,7 +734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -742,19 +742,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A12" s="3"/>
       <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A13" s="3"/>
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -762,13 +762,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -776,19 +776,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A17" s="3"/>
       <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A18" s="3"/>
       <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -796,19 +796,19 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A20" s="3"/>
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A21" s="3"/>
       <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -816,13 +816,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A23" s="3"/>
       <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -830,19 +830,19 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A25" s="3"/>
       <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A26" s="3"/>
       <c r="B26" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -850,13 +850,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A28" s="3"/>
       <c r="B28" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -864,19 +864,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A30" s="3"/>
       <c r="B30" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A31" s="3"/>
       <c r="B31" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
@@ -894,16 +894,16 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="104.5546875" customWidth="1"/>
+    <col min="1" max="1" width="25.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -914,7 +914,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -925,7 +925,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>4</v>
@@ -934,16 +934,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="7">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -954,7 +954,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -962,7 +962,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -970,7 +970,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -978,7 +978,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -986,7 +986,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -997,7 +997,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1008,15 +1008,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="B13" t="s">
         <v>17</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1032,10 +1032,10 @@
         <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="B17" t="s">
         <v>23</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="B18" t="s">
         <v>24</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="B20" t="s">
         <v>27</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="B21" t="s">
         <v>28</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="B23" t="s">
         <v>31</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="B25" t="s">
         <v>34</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="B26" t="s">
         <v>35</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="B28" t="s">
         <v>38</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="B30" t="s">
         <v>41</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="B31" t="s">
         <v>42</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3">
       <c r="C33" s="7"/>
     </row>
   </sheetData>

--- a/AcceptanceCriteria.xlsx
+++ b/AcceptanceCriteria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polytechintl-my.sharepoint.com/personal/o_mahmoud22026_pi_tn/Documents/_IRM-2-2-S1/C# .NET/Projet/CloudXForum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{5FF49E68-E68C-426F-A2C2-D9A44D4D6CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E37FC5D4-D00C-4AFC-AB7B-4A3319835E85}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{5FF49E68-E68C-426F-A2C2-D9A44D4D6CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBF0F0EB-46E4-42B5-B7C2-45913D96B541}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CFCB619F-005A-42C7-9291-1F4ED48D634C}"/>
   </bookViews>
@@ -181,7 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,14 +659,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.296875" defaultRowHeight="30.6" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="27.33203125" defaultRowHeight="30.6" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.296875" style="4"/>
-    <col min="2" max="2" width="163.3984375" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="27.296875" style="4"/>
+    <col min="1" max="1" width="27.33203125" style="4"/>
+    <col min="2" max="2" width="163.44140625" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="27.33203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="33" customHeight="1" thickBot="1">
+    <row r="1" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -674,7 +674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="33" customHeight="1" thickBot="1">
+    <row r="2" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -682,19 +682,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="33" customHeight="1" thickBot="1">
+    <row r="3" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="33" customHeight="1" thickBot="1">
+    <row r="4" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="33" customHeight="1" thickBot="1">
+    <row r="5" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -702,31 +702,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="33" customHeight="1" thickBot="1">
+    <row r="6" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="33" customHeight="1" thickBot="1">
+    <row r="7" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="33" customHeight="1" thickBot="1">
+    <row r="8" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="33" customHeight="1" thickBot="1">
+    <row r="9" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="33" customHeight="1" thickBot="1">
+    <row r="10" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -734,7 +734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="33" customHeight="1" thickBot="1">
+    <row r="11" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -742,19 +742,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="33" customHeight="1" thickBot="1">
+    <row r="12" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="33" customHeight="1" thickBot="1">
+    <row r="13" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="33" customHeight="1" thickBot="1">
+    <row r="14" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -762,13 +762,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="33" customHeight="1" thickBot="1">
+    <row r="15" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="33" customHeight="1" thickBot="1">
+    <row r="16" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -776,19 +776,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="33" customHeight="1" thickBot="1">
+    <row r="17" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="33" customHeight="1" thickBot="1">
+    <row r="18" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="33" customHeight="1" thickBot="1">
+    <row r="19" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -796,19 +796,19 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="33" customHeight="1" thickBot="1">
+    <row r="20" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="33" customHeight="1" thickBot="1">
+    <row r="21" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="33" customHeight="1" thickBot="1">
+    <row r="22" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -816,13 +816,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="33" customHeight="1" thickBot="1">
+    <row r="23" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="33" customHeight="1" thickBot="1">
+    <row r="24" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -830,19 +830,19 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="33" customHeight="1" thickBot="1">
+    <row r="25" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="33" customHeight="1" thickBot="1">
+    <row r="26" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="33" customHeight="1" thickBot="1">
+    <row r="27" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -850,13 +850,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="33" customHeight="1" thickBot="1">
+    <row r="28" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="33" customHeight="1" thickBot="1">
+    <row r="29" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -864,19 +864,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="33" customHeight="1" thickBot="1">
+    <row r="30" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="33" customHeight="1" thickBot="1">
+    <row r="31" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="33" customHeight="1" thickBot="1">
+    <row r="32" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
@@ -893,17 +893,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4E43A3-4E37-4ADA-A3C1-0E23EB001F06}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="104.59765625" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -914,7 +914,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -925,7 +925,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>4</v>
@@ -934,7 +934,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>5</v>
@@ -943,7 +943,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -954,7 +954,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -962,7 +962,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -970,7 +970,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -978,7 +978,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -986,7 +986,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -997,7 +997,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>17</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>23</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>24</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>27</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>28</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>31</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>34</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>35</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -1151,18 +1151,18 @@
         <v>37</v>
       </c>
       <c r="C27" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>41</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>42</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="7"/>
     </row>
   </sheetData>

--- a/AcceptanceCriteria.xlsx
+++ b/AcceptanceCriteria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polytechintl-my.sharepoint.com/personal/o_mahmoud22026_pi_tn/Documents/_IRM-2-2-S1/C# .NET/Projet/CloudXForum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{5FF49E68-E68C-426F-A2C2-D9A44D4D6CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBF0F0EB-46E4-42B5-B7C2-45913D96B541}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{5FF49E68-E68C-426F-A2C2-D9A44D4D6CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56835B21-0FB3-4415-8924-DED09AD90DC3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CFCB619F-005A-42C7-9291-1F4ED48D634C}"/>
   </bookViews>
@@ -894,7 +894,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1078,7 +1078,7 @@
         <v>26</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1086,7 +1086,7 @@
         <v>27</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1094,7 +1094,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1151,7 +1151,7 @@
         <v>37</v>
       </c>
       <c r="C27" s="7">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1159,7 +1159,7 @@
         <v>38</v>
       </c>
       <c r="C28" s="7">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1208,8 +1208,8 @@
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols" showValue="0">
         <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="0" gte="0"/>
-        <cfvo type="percent" val="100"/>
+        <cfvo type="num" val="0" gte="0"/>
+        <cfvo type="num" val="100"/>
       </iconSet>
     </cfRule>
   </conditionalFormatting>

--- a/AcceptanceCriteria.xlsx
+++ b/AcceptanceCriteria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polytechintl-my.sharepoint.com/personal/o_mahmoud22026_pi_tn/Documents/_IRM-2-2-S1/C# .NET/Projet/CloudXForum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{5FF49E68-E68C-426F-A2C2-D9A44D4D6CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56835B21-0FB3-4415-8924-DED09AD90DC3}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{5FF49E68-E68C-426F-A2C2-D9A44D4D6CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EDABD6E-E731-4050-A3F6-5A49657776EF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CFCB619F-005A-42C7-9291-1F4ED48D634C}"/>
   </bookViews>
@@ -181,7 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,14 +659,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.33203125" defaultRowHeight="30.6" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="27.296875" defaultRowHeight="30.6" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="4"/>
-    <col min="2" max="2" width="163.44140625" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="27.33203125" style="4"/>
+    <col min="1" max="1" width="27.296875" style="4"/>
+    <col min="2" max="2" width="163.3984375" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="27.296875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -674,7 +674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -682,19 +682,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -702,31 +702,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -734,7 +734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -742,19 +742,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A12" s="3"/>
       <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A13" s="3"/>
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -762,13 +762,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -776,19 +776,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A17" s="3"/>
       <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A18" s="3"/>
       <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -796,19 +796,19 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A20" s="3"/>
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A21" s="3"/>
       <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -816,13 +816,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A23" s="3"/>
       <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -830,19 +830,19 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A25" s="3"/>
       <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A26" s="3"/>
       <c r="B26" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -850,13 +850,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A28" s="3"/>
       <c r="B28" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -864,19 +864,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A30" s="3"/>
       <c r="B30" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A31" s="3"/>
       <c r="B31" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" ht="33" customHeight="1" thickBot="1">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
@@ -894,16 +894,16 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="104.5546875" customWidth="1"/>
+    <col min="1" max="1" width="25.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -914,7 +914,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -925,7 +925,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>4</v>
@@ -934,7 +934,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>5</v>
@@ -943,7 +943,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -954,7 +954,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -962,7 +962,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -970,7 +970,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -978,7 +978,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -986,7 +986,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -997,7 +997,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="B13" t="s">
         <v>17</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="B17" t="s">
         <v>23</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="B18" t="s">
         <v>24</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1078,18 +1078,18 @@
         <v>26</v>
       </c>
       <c r="C19" s="7">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="B20" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="7">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="B21" t="s">
         <v>28</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="B23" t="s">
         <v>31</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="B25" t="s">
         <v>34</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="B26" t="s">
         <v>35</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -1151,18 +1151,18 @@
         <v>37</v>
       </c>
       <c r="C27" s="7">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="B28" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="7">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="B30" t="s">
         <v>41</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="B31" t="s">
         <v>42</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3">
       <c r="C33" s="7"/>
     </row>
   </sheetData>
